--- a/trend_results/Rivers/WhanganuiatDownstreamIntake_536c82ad59.xlsx
+++ b/trend_results/Rivers/WhanganuiatDownstreamIntake_536c82ad59.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.46656076005735</v>
+        <v>0.53343923994265</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.995927968949968</v>
+        <v>0.0040720310500319</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.395619822904087</v>
+        <v>0.604380177095913</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.792276649949291</v>
+        <v>0.207723350050709</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">

--- a/trend_results/Rivers/WhanganuiatDownstreamIntake_536c82ad59.xlsx
+++ b/trend_results/Rivers/WhanganuiatDownstreamIntake_536c82ad59.xlsx
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.857159046383945</v>
+        <v>0.999984930691919</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.803571428571429</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.075</v>
+        <v>3.625</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.300394647404356</v>
+        <v>-1.13709905660377</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.96427870156886</v>
+        <v>-1.57877571170818</v>
       </c>
       <c r="M2" t="n">
-        <v>0.174079738867356</v>
+        <v>-0.762119266944709</v>
       </c>
       <c r="N2" t="n">
-        <v>-7.37164778906396</v>
+        <v>-31.3682498373455</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.53343923994265</v>
+        <v>0.306677177977373</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.923076923076923</v>
+        <v>0.884615384615385</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11.095</v>
+        <v>11.13</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0148887919512916</v>
+        <v>-0.0201334190003544</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0561674720812584</v>
+        <v>-0.0600749620883886</v>
       </c>
       <c r="M3" t="n">
-        <v>0.102018694588577</v>
+        <v>0.0420333342810997</v>
       </c>
       <c r="N3" t="n">
-        <v>0.134193708438861</v>
+        <v>-0.180893252473983</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.5346378790408191</v>
+        <v>0.512609752963165</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5192307692307691</v>
+        <v>0.480769230769231</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -773,10 +773,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0015002232182952</v>
+        <v>-0.0013984096184896</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0015949899795481</v>
+        <v>0.0014237960936476</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -850,10 +850,10 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06382978723404251</v>
+        <v>0.0204081632653061</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -925,10 +925,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.892058396155779</v>
+        <v>0.9996375250255231</v>
       </c>
       <c r="G6" t="n">
-        <v>0.826923076923077</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="H6" t="n">
         <v>0.0769230769230769</v>
@@ -958,7 +958,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1012,35 +1012,35 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.564259184894693</v>
+        <v>0.0268465872455513</v>
       </c>
       <c r="G7" t="n">
-        <v>0.346153846153846</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="H7" t="n">
-        <v>0.461538461538462</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="I7" t="n">
         <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.0010612712749192</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0012681362341159</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0006290747089841</v>
+        <v>0.0026475603740742</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>8.163625191686419</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.0040720310500319</v>
+        <v>0.025540585524228</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.692307692307692</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.715</v>
+        <v>7.685</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0493753270538985</v>
+        <v>-0.0416505056890014</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0824118218615396</v>
+        <v>-0.0728173008584146</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.0188118907957136</v>
+        <v>-0.0056405106263166</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.639991277432255</v>
+        <v>-0.541971446831508</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1194,31 +1194,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.465320324469906</v>
+        <v>0.0226481180001614</v>
       </c>
       <c r="G9" t="n">
         <v>0.0384615384615385</v>
       </c>
       <c r="H9" t="n">
-        <v>0.557692307692308</v>
+        <v>0.653846153846154</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>0.016</v>
+        <v>0.0165</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0001254292582417</v>
+        <v>0.000927811719668</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0030103021978022</v>
+        <v>0.0001495117257217</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0009957583533338</v>
+        <v>0.0016739661144839</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.7839328640109891</v>
+        <v>5.62310133132144</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1277,7 +1277,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1285,31 +1285,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.035220214636044</v>
+        <v>0.805450278015326</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6434782608695651</v>
+        <v>0.646017699115044</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>0.14993842364532</v>
+        <v>-0.0720533586070691</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0070077036724678</v>
+        <v>-0.235876896519715</v>
       </c>
       <c r="M10" t="n">
-        <v>0.324873049257266</v>
+        <v>0.0562613851946069</v>
       </c>
       <c r="N10" t="n">
-        <v>4.83672334339743</v>
+        <v>-2.40177862023564</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1376,31 +1376,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.604380177095913</v>
+        <v>0.747462760131149</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.835164835164835</v>
+        <v>0.776699029126214</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.03</v>
+        <v>11.08</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0039983579638751</v>
+        <v>0.0091528313569987</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.021045142655985</v>
+        <v>-0.0164762198605148</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0574221368986846</v>
+        <v>0.0449850873621731</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0362498455473719</v>
+        <v>0.0826067812003498</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1459,7 +1459,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1467,13 +1467,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.914009321146263</v>
+        <v>0.996444972146462</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.321428571428571</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0.031</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0004640907218232</v>
+        <v>-0.0007249421898143</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.001003434065934</v>
+        <v>-0.0011875806760913</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>-0.0002722886734306</v>
       </c>
       <c r="N12" t="n">
-        <v>-1.49706684459109</v>
+        <v>-2.33852319294961</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1559,10 +1559,10 @@
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>0.96</v>
+        <v>0.961165048543689</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09</v>
+        <v>0.087378640776699</v>
       </c>
       <c r="I13" t="n">
         <v>5</v>
@@ -1637,13 +1637,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.997318945430597</v>
+        <v>0.9891592332385361</v>
       </c>
       <c r="G14" t="n">
-        <v>0.580357142857143</v>
+        <v>0.678571428571429</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0803571428571429</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="I14" t="n">
         <v>2</v>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1728,31 +1728,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.0552834563397625</v>
+        <v>0.0020193005112973</v>
       </c>
       <c r="G15" t="n">
-        <v>0.410714285714286</v>
+        <v>0.366071428571429</v>
       </c>
       <c r="H15" t="n">
-        <v>0.383928571428571</v>
+        <v>0.348214285714286</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0078</v>
+        <v>0.0097</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.0004155999976436</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0004154454532524</v>
+        <v>0.0010036347019392</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>4.28453605818184</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1819,31 +1819,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.207723350050709</v>
+        <v>0.110913500783029</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.571428571428571</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>7.72</v>
+        <v>7.71</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0064417989417989</v>
+        <v>-0.0101663288547838</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0194414469010113</v>
+        <v>-0.0220556696318059</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0067291515031645</v>
+        <v>0.0035038544255037</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0834429914740793</v>
+        <v>-0.131858999413538</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1906,31 +1906,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.005683030871895</v>
+        <v>0.0006092593328019</v>
       </c>
       <c r="G17" t="n">
         <v>0.0892857142857143</v>
       </c>
       <c r="H17" t="n">
-        <v>0.366071428571429</v>
+        <v>0.526785714285714</v>
       </c>
       <c r="I17" t="n">
         <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0.013</v>
+        <v>0.01525</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0007318748302886</v>
+        <v>0.0008867171848115</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0002967639454895</v>
+        <v>0.0005017170329669999</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0012482911825017</v>
+        <v>0.0012490614936116</v>
       </c>
       <c r="N17" t="n">
-        <v>5.62980638683595</v>
+        <v>5.81453891679711</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>

--- a/trend_results/Rivers/WhanganuiatDownstreamIntake_536c82ad59.xlsx
+++ b/trend_results/Rivers/WhanganuiatDownstreamIntake_536c82ad59.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="58">
   <si>
     <t>site name</t>
   </si>
@@ -112,19 +112,28 @@
     <t>SIN (Soluble Inorganic nitrogen)</t>
   </si>
   <si>
+    <t>Total Nitrogen</t>
+  </si>
+  <si>
+    <t>Total Phosphorus</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
+    <t>&lt; 3 unique values</t>
+  </si>
+  <si>
+    <t>&lt; 5 Non-censored values</t>
+  </si>
+  <si>
+    <t>WARNING: Sen slope influenced by censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
-    <t>&lt; 3 unique values</t>
-  </si>
-  <si>
-    <t>WARNING: Sen slope influenced by censored values</t>
-  </si>
-  <si>
-    <t>&lt; 5 Non-censored values</t>
+    <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -133,31 +142,31 @@
     <t>Virtually certain improving</t>
   </si>
   <si>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Not Analysed improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
     <t>Unlikely increasing</t>
   </si>
   <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>Not Analysed improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
     <t>Likely increasing</t>
   </si>
   <si>
     <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
   </si>
   <si>
     <t>Ruapehu District</t>
@@ -536,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,40 +636,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2">
-        <v>0.999984930691919</v>
+        <v>0.999722535160302</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.777777777777778</v>
+        <v>0.862745098039216</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>3.625</v>
+        <v>3.05</v>
       </c>
       <c r="K2">
-        <v>-1.13709905660377</v>
+        <v>-1.08062130177515</v>
       </c>
       <c r="L2">
-        <v>-1.57877571170818</v>
+        <v>-1.77861336269311</v>
       </c>
       <c r="M2">
-        <v>-0.762119266944709</v>
+        <v>-0.542603344549647</v>
       </c>
       <c r="N2">
-        <v>-31.3682498373455</v>
+        <v>-35.4302066155786</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Q2">
         <v>1825125.6</v>
@@ -669,19 +678,19 @@
         <v>5676951.3</v>
       </c>
       <c r="S2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="T2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="V2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="W2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -698,40 +707,40 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3">
-        <v>0.306677177977373</v>
+        <v>0.031913038047481</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.884615384615385</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.13</v>
+        <v>11.15</v>
       </c>
       <c r="K3">
-        <v>-0.0201334190003544</v>
+        <v>-0.0500342465753423</v>
       </c>
       <c r="L3">
-        <v>-0.0600749620883886</v>
+        <v>-0.104482915209714</v>
       </c>
       <c r="M3">
-        <v>0.0420333342810997</v>
+        <v>-0.01998163344529</v>
       </c>
       <c r="N3">
-        <v>-0.180893252473983</v>
+        <v>-0.448737637447016</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q3">
         <v>1825125.6</v>
@@ -740,19 +749,19 @@
         <v>5676951.3</v>
       </c>
       <c r="S3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="T3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="V3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="W3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -766,43 +775,43 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>0.512609752963165</v>
+        <v>0.190756208731795</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.480769230769231</v>
+        <v>0.464285714285714</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03</v>
+        <v>0.029</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0003750874947421</v>
       </c>
       <c r="L4">
-        <v>-0.0013984096184896</v>
+        <v>-0.0001678384605919</v>
       </c>
       <c r="M4">
-        <v>0.0014237960936476</v>
+        <v>0.0014508802825413</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.2934051542831</v>
       </c>
       <c r="O4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q4">
         <v>1825125.6</v>
@@ -811,19 +820,19 @@
         <v>5676951.3</v>
       </c>
       <c r="S4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="T4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="V4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -840,22 +849,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0.962264150943396</v>
       </c>
       <c r="H5">
-        <v>0.0204081632653061</v>
+        <v>0.0566037735849057</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q5">
         <v>1825125.6</v>
@@ -864,19 +873,19 @@
         <v>5676951.3</v>
       </c>
       <c r="S5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="T5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="V5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="W5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -893,40 +902,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6">
-        <v>0.9996375250255231</v>
+        <v>36</v>
       </c>
       <c r="G6">
-        <v>0.846153846153846</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="H6">
-        <v>0.0769230769230769</v>
+        <v>0.0535714285714286</v>
       </c>
       <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>0.001</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Q6">
         <v>1825125.6</v>
@@ -935,19 +926,19 @@
         <v>5676951.3</v>
       </c>
       <c r="S6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="T6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="V6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="W6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -961,43 +952,43 @@
         <v>5</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F7">
-        <v>0.0268465872455513</v>
+        <v>0.0043634148386232</v>
       </c>
       <c r="G7">
-        <v>0.307692307692308</v>
+        <v>0.160714285714286</v>
       </c>
       <c r="H7">
-        <v>0.384615384615385</v>
+        <v>0.392857142857143</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="K7">
-        <v>0.0010612712749192</v>
+        <v>0.0019441535027472</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.0005047308798932</v>
       </c>
       <c r="M7">
-        <v>0.0026475603740742</v>
+        <v>0.00290682678667</v>
       </c>
       <c r="N7">
-        <v>8.163625191686419</v>
+        <v>13.8868107339089</v>
       </c>
       <c r="O7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q7">
         <v>1825125.6</v>
@@ -1006,19 +997,19 @@
         <v>5676951.3</v>
       </c>
       <c r="S7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="T7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="V7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="W7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1035,40 +1026,40 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F8">
-        <v>0.025540585524228</v>
+        <v>0.25662188249755</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.711538461538462</v>
+        <v>0.690909090909091</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.685</v>
+        <v>7.69</v>
       </c>
       <c r="K8">
-        <v>-0.0416505056890014</v>
+        <v>-0.0093176020408169</v>
       </c>
       <c r="L8">
-        <v>-0.0728173008584146</v>
+        <v>-0.0432961795596973</v>
       </c>
       <c r="M8">
-        <v>-0.0056405106263166</v>
+        <v>0.016225272180202</v>
       </c>
       <c r="N8">
-        <v>-0.541971446831508</v>
+        <v>-0.121165176083445</v>
       </c>
       <c r="O8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q8">
         <v>1825125.6</v>
@@ -1077,16 +1068,16 @@
         <v>5676951.3</v>
       </c>
       <c r="S8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="T8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="V8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1103,40 +1094,40 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F9">
-        <v>0.0226481180001614</v>
+        <v>0.0016382654342414</v>
       </c>
       <c r="G9">
-        <v>0.0384615384615385</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="H9">
-        <v>0.653846153846154</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>0.0165</v>
+        <v>0.0175</v>
       </c>
       <c r="K9">
-        <v>0.000927811719668</v>
+        <v>0.0027091121955274</v>
       </c>
       <c r="L9">
-        <v>0.0001495117257217</v>
+        <v>0.0008423165630378</v>
       </c>
       <c r="M9">
-        <v>0.0016739661144839</v>
+        <v>0.0040350033572326</v>
       </c>
       <c r="N9">
-        <v>5.62310133132144</v>
+        <v>15.4806411172994</v>
       </c>
       <c r="O9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q9">
         <v>1825125.6</v>
@@ -1145,19 +1136,19 @@
         <v>5676951.3</v>
       </c>
       <c r="S9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="T9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="V9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="W9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1165,49 +1156,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10">
-        <v>0.805450278015326</v>
+        <v>0.0333526623102655</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="H10">
-        <v>0.646017699115044</v>
+        <v>0.232142857142857</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>0.04</v>
       </c>
       <c r="K10">
-        <v>-0.0720533586070691</v>
+        <v>0.0050137291977569</v>
       </c>
       <c r="L10">
-        <v>-0.235876896519715</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.0562613851946069</v>
+        <v>0.0069423490891</v>
       </c>
       <c r="N10">
-        <v>-2.40177862023564</v>
+        <v>12.5343229943924</v>
       </c>
       <c r="O10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q10">
         <v>1825125.6</v>
@@ -1216,19 +1207,19 @@
         <v>5676951.3</v>
       </c>
       <c r="S10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="T10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="V10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="W10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1236,49 +1227,49 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11">
-        <v>0.747462760131149</v>
+        <v>0.115761073196185</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.776699029126214</v>
+        <v>0.464285714285714</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.08</v>
+        <v>0.0325</v>
       </c>
       <c r="K11">
-        <v>0.0091528313569987</v>
+        <v>0.0009212219953436</v>
       </c>
       <c r="L11">
-        <v>-0.0164762198605148</v>
+        <v>-0.0003162337662337</v>
       </c>
       <c r="M11">
-        <v>0.0449850873621731</v>
+        <v>0.0022551532149171</v>
       </c>
       <c r="N11">
-        <v>0.0826067812003498</v>
+        <v>2.83452921644212</v>
       </c>
       <c r="O11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q11">
         <v>1825125.6</v>
@@ -1287,19 +1278,19 @@
         <v>5676951.3</v>
       </c>
       <c r="S11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="T11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="V11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="W11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1307,7 +1298,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -1316,40 +1307,40 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F12">
-        <v>0.996444972146462</v>
+        <v>0.531491417618756</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.285714285714286</v>
+        <v>0.63963963963964</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.031</v>
+        <v>3</v>
       </c>
       <c r="K12">
-        <v>-0.0007249421898143</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>-0.0011875806760913</v>
+        <v>-0.144368707162061</v>
       </c>
       <c r="M12">
-        <v>-0.0002722886734306</v>
+        <v>0.119675622542595</v>
       </c>
       <c r="N12">
-        <v>-2.33852319294961</v>
+        <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P12" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="Q12">
         <v>1825125.6</v>
@@ -1358,19 +1349,19 @@
         <v>5676951.3</v>
       </c>
       <c r="S12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="T12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="V12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="W12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1378,31 +1369,49 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="F13">
+        <v>0.799839488401844</v>
       </c>
       <c r="G13">
-        <v>0.961165048543689</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.087378640776699</v>
+        <v>0.7610619469026551</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>11.07</v>
+      </c>
+      <c r="K13">
+        <v>0.0108518348664113</v>
+      </c>
+      <c r="L13">
+        <v>-0.0122587153398577</v>
+      </c>
+      <c r="M13">
+        <v>0.0409063228089155</v>
+      </c>
+      <c r="N13">
+        <v>0.0980292219188014</v>
       </c>
       <c r="O13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P13" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="Q13">
         <v>1825125.6</v>
@@ -1411,19 +1420,19 @@
         <v>5676951.3</v>
       </c>
       <c r="S13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="T13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="V13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="W13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1431,49 +1440,49 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14">
-        <v>0.9891592332385361</v>
+        <v>0.959365203945456</v>
       </c>
       <c r="G14">
-        <v>0.678571428571429</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.0714285714285714</v>
+        <v>0.275862068965517</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.001</v>
+        <v>0.031</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>-0.0004981276242554</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>-0.0010002282062984</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>-1.60686330404982</v>
       </c>
       <c r="O14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q14">
         <v>1825125.6</v>
@@ -1482,19 +1491,19 @@
         <v>5676951.3</v>
       </c>
       <c r="S14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="T14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="V14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="W14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1502,7 +1511,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -1511,40 +1520,40 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F15">
-        <v>0.0020193005112973</v>
+        <v>0.47396000474688</v>
       </c>
       <c r="G15">
-        <v>0.366071428571429</v>
+        <v>0.954545454545455</v>
       </c>
       <c r="H15">
-        <v>0.348214285714286</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J15">
-        <v>0.0097</v>
+        <v>0.005</v>
       </c>
       <c r="K15">
-        <v>0.0004155999976436</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0010036347019392</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>4.28453605818184</v>
+        <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q15">
         <v>1825125.6</v>
@@ -1553,19 +1562,19 @@
         <v>5676951.3</v>
       </c>
       <c r="S15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="T15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="V15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="W15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1573,7 +1582,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -1582,40 +1591,40 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F16">
-        <v>0.110913500783029</v>
+        <v>0.997437854202528</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.7844827586206899</v>
       </c>
       <c r="H16">
-        <v>0.555555555555556</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16">
-        <v>7.71</v>
+        <v>0.001</v>
       </c>
       <c r="K16">
-        <v>-0.0101663288547838</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>-0.0220556696318059</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0035038544255037</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>-0.131858999413538</v>
+        <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q16">
         <v>1825125.6</v>
@@ -1624,16 +1633,19 @@
         <v>5676951.3</v>
       </c>
       <c r="S16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="T16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="V16" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1641,7 +1653,7 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -1650,40 +1662,40 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F17">
-        <v>0.0006092593328019</v>
+        <v>6.81877351148899E-08</v>
       </c>
       <c r="G17">
-        <v>0.0892857142857143</v>
+        <v>0.318965517241379</v>
       </c>
       <c r="H17">
-        <v>0.526785714285714</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17">
-        <v>0.01525</v>
+        <v>0.0104</v>
       </c>
       <c r="K17">
-        <v>0.0008867171848115</v>
+        <v>0.0009420652938508</v>
       </c>
       <c r="L17">
-        <v>0.0005017170329669999</v>
+        <v>0.000594355336689</v>
       </c>
       <c r="M17">
-        <v>0.0012490614936116</v>
+        <v>0.0012646840176043</v>
       </c>
       <c r="N17">
-        <v>5.81453891679711</v>
+        <v>9.05832013318093</v>
       </c>
       <c r="O17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q17">
         <v>1825125.6</v>
@@ -1692,19 +1704,229 @@
         <v>5676951.3</v>
       </c>
       <c r="S17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="T17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="V17" t="s">
+        <v>54</v>
+      </c>
+      <c r="W17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18">
+        <v>0.030621692898636</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0.48695652173913</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>7.72</v>
+      </c>
+      <c r="K18">
+        <v>-0.0113431677018631</v>
+      </c>
+      <c r="L18">
+        <v>-0.0207381945151066</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>-0.146932224117398</v>
+      </c>
+      <c r="O18" t="s">
+        <v>40</v>
+      </c>
+      <c r="P18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q18">
+        <v>1825125.6</v>
+      </c>
+      <c r="R18">
+        <v>5676951.3</v>
+      </c>
+      <c r="S18" t="s">
         <v>51</v>
       </c>
-      <c r="W17" t="s">
+      <c r="T18" t="s">
+        <v>52</v>
+      </c>
+      <c r="U18" t="s">
         <v>53</v>
+      </c>
+      <c r="V18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19">
+        <v>0.0015643887842682</v>
+      </c>
+      <c r="G19">
+        <v>0.103448275862069</v>
+      </c>
+      <c r="H19">
+        <v>0.508620689655172</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>0.0156</v>
+      </c>
+      <c r="K19">
+        <v>0.0008840459095229</v>
+      </c>
+      <c r="L19">
+        <v>0.0003998357963875</v>
+      </c>
+      <c r="M19">
+        <v>0.0012512553938516</v>
+      </c>
+      <c r="N19">
+        <v>5.66696095848024</v>
+      </c>
+      <c r="O19" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q19">
+        <v>1825125.6</v>
+      </c>
+      <c r="R19">
+        <v>5676951.3</v>
+      </c>
+      <c r="S19" t="s">
+        <v>51</v>
+      </c>
+      <c r="T19" t="s">
+        <v>52</v>
+      </c>
+      <c r="U19" t="s">
+        <v>53</v>
+      </c>
+      <c r="V19" t="s">
+        <v>54</v>
+      </c>
+      <c r="W19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20">
+        <v>0.295752518497458</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0.568627450980392</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>3.05</v>
+      </c>
+      <c r="K20">
+        <v>0.0221565059144677</v>
+      </c>
+      <c r="L20">
+        <v>-0.0499514803731587</v>
+      </c>
+      <c r="M20">
+        <v>0.09390908026188111</v>
+      </c>
+      <c r="N20">
+        <v>0.726442816867794</v>
+      </c>
+      <c r="O20" t="s">
+        <v>40</v>
+      </c>
+      <c r="P20" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q20">
+        <v>1825125.6</v>
+      </c>
+      <c r="R20">
+        <v>5676951.3</v>
+      </c>
+      <c r="S20" t="s">
+        <v>51</v>
+      </c>
+      <c r="T20" t="s">
+        <v>52</v>
+      </c>
+      <c r="U20" t="s">
+        <v>53</v>
+      </c>
+      <c r="V20" t="s">
+        <v>54</v>
+      </c>
+      <c r="W20" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
